--- a/MexpressWebClient/src/assets/download/Plantilla de carga de productos.xlsx
+++ b/MexpressWebClient/src/assets/download/Plantilla de carga de productos.xlsx
@@ -35,7 +35,7 @@
     <t>Monto</t>
   </si>
   <si>
-    <t>Moneda(1: colones, 2:dólares)</t>
+    <t>Moneda(COLONES, DOLARES)</t>
   </si>
 </sst>
 </file>
